--- a/Sprint 2/Documentação/Planilha_de_riscos.xlsx
+++ b/Sprint 2/Documentação/Planilha_de_riscos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gm888\Documents\Repositorios\Ferbgam\Sprint 2\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manocchio\Desktop\grupo04-1adsa-2021-1\Sprint 2\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58809406-8D49-4261-9E6B-0DE424A981F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B51FFC-3B18-4C60-8653-73EEB5BB8BD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{725CB271-D415-4774-BA8E-1574EE13A346}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{725CB271-D415-4774-BA8E-1574EE13A346}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Procurar estudar fora do horario de aula e tirar dúvidas com professores e colegas, para agregar conhecimentos.</t>
+  </si>
+  <si>
+    <t>Dialogar para que seja possível compreender a justificativa</t>
+  </si>
+  <si>
+    <t>Entrar em contato com o corpo docente da faculdade para solicitar apoio e traçar planos de prevenção</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +170,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -470,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,23 +529,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,34 +562,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,40 +628,130 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,6 +760,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFD0BB8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -932,817 +1075,821 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079D4132-0B44-454B-9607-1AF69B3FC5DD}">
   <dimension ref="C3:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19:Y22"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1" t="s">
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="78"/>
+      <c r="N4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="1" t="s">
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="1" t="s">
+      <c r="T4" s="77"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="3"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="78"/>
     </row>
     <row r="5" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="81"/>
     </row>
     <row r="6" spans="3:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="9"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="84"/>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="16">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19">
         <v>2</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="16">
+      <c r="J7" s="25"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="19">
         <v>3</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="46">
+      <c r="M7" s="26"/>
+      <c r="N7" s="31">
         <v>6</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="46" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="37" t="s">
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="39"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="42"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="42"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="15"/>
     </row>
     <row r="10" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="45"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="16">
+      <c r="C11" s="19">
         <v>2</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19">
         <v>1</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16">
+      <c r="J11" s="25"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="19">
         <v>3</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="16">
+      <c r="M11" s="26"/>
+      <c r="N11" s="19">
         <f>I11*L11</f>
         <v>3</v>
       </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="46" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="37" t="s">
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="39"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="42"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="15"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="42"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="45"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="16">
+      <c r="C15" s="19">
         <v>3</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19">
         <v>2</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="16">
+      <c r="J15" s="25"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="19">
         <v>3</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="16">
+      <c r="M15" s="26"/>
+      <c r="N15" s="19">
         <f>I15*L15</f>
         <v>6</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="46" t="s">
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="37" t="s">
+      <c r="T15" s="25"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="39"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="12"/>
     </row>
     <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="42"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="42"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="15"/>
     </row>
     <row r="18" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="45"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C19" s="16">
+      <c r="C19" s="19">
         <v>4</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19">
         <v>2</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="16">
+      <c r="J19" s="25"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19">
         <v>3</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="16">
+      <c r="M19" s="26"/>
+      <c r="N19" s="19">
         <f>I19*L19</f>
         <v>6</v>
       </c>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="46" t="s">
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T19" s="18"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="39"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="42"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="15"/>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="42"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="45"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C23" s="16">
+      <c r="C23" s="19">
         <v>5</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="19">
         <v>2</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="16">
+      <c r="J23" s="25"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="19">
         <v>1</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="16">
+      <c r="M23" s="26"/>
+      <c r="N23" s="19">
         <f>I23*L23</f>
         <v>2</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="46" t="s">
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="28" t="s">
+      <c r="T23" s="25"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="30"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="36"/>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="33"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="39"/>
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="33"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="39"/>
     </row>
     <row r="26" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="36"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="42"/>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C27" s="16">
+      <c r="C27" s="19">
         <v>6</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="16">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="19">
         <v>3</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="46">
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="31">
         <v>2</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="16">
+      <c r="M27" s="26"/>
+      <c r="N27" s="19">
         <f>I27*L27</f>
         <v>6</v>
       </c>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="46" t="s">
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T27" s="18"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="39"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="12"/>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="42"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="15"/>
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="42"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="15"/>
     </row>
     <row r="30" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="45"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="18"/>
     </row>
     <row r="32" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="12"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="72"/>
     </row>
     <row r="34" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="15"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="75"/>
     </row>
     <row r="35" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I35" s="1" t="s">
@@ -1750,57 +1897,63 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="3"/>
+      <c r="L35" s="43">
+        <v>3</v>
+      </c>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="61">
+        <v>6</v>
+      </c>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="61">
+        <v>9</v>
+      </c>
+      <c r="S35" s="62"/>
+      <c r="T35" s="63"/>
     </row>
     <row r="36" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I36" s="4"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="6"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="66"/>
     </row>
     <row r="37" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="4"/>
       <c r="J37" s="5"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="6"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="66"/>
     </row>
     <row r="38" spans="9:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="9"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="69"/>
     </row>
     <row r="39" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I39" s="1" t="s">
@@ -1808,57 +1961,63 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="3"/>
+      <c r="L39" s="52">
+        <v>2</v>
+      </c>
+      <c r="M39" s="53"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="43">
+        <v>4</v>
+      </c>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="61">
+        <v>6</v>
+      </c>
+      <c r="S39" s="62"/>
+      <c r="T39" s="63"/>
     </row>
     <row r="40" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I40" s="4"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="6"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="66"/>
     </row>
     <row r="41" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I41" s="4"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="6"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="66"/>
     </row>
     <row r="42" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="9"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="69"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I43" s="1" t="s">
@@ -1866,87 +2025,93 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="3"/>
+      <c r="L43" s="52">
+        <v>1</v>
+      </c>
+      <c r="M43" s="53"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="52">
+        <v>2</v>
+      </c>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="43">
+        <v>3</v>
+      </c>
+      <c r="S43" s="44"/>
+      <c r="T43" s="45"/>
     </row>
     <row r="44" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="6"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="48"/>
     </row>
     <row r="45" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I45" s="4"/>
       <c r="J45" s="5"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="6"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="48"/>
     </row>
     <row r="46" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I46" s="7"/>
       <c r="J46" s="8"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="9"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="51"/>
     </row>
     <row r="47" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="12"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="72"/>
     </row>
     <row r="48" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I48" s="13"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="15"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="75"/>
     </row>
     <row r="49" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I49" s="1"/>
@@ -2012,31 +2177,34 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="I33:T34"/>
-    <mergeCell ref="I47:T48"/>
-    <mergeCell ref="L43:N46"/>
-    <mergeCell ref="O43:Q46"/>
-    <mergeCell ref="R43:T46"/>
-    <mergeCell ref="I49:K52"/>
-    <mergeCell ref="L49:N52"/>
-    <mergeCell ref="O49:Q52"/>
-    <mergeCell ref="R49:T52"/>
-    <mergeCell ref="L35:N38"/>
-    <mergeCell ref="O35:Q38"/>
-    <mergeCell ref="R35:T38"/>
-    <mergeCell ref="L39:N42"/>
-    <mergeCell ref="O39:Q42"/>
-    <mergeCell ref="R39:T42"/>
-    <mergeCell ref="I35:K38"/>
-    <mergeCell ref="I39:K42"/>
-    <mergeCell ref="I43:K46"/>
-    <mergeCell ref="V27:Y30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="E27:H30"/>
-    <mergeCell ref="I27:K30"/>
-    <mergeCell ref="L27:M30"/>
-    <mergeCell ref="N27:R30"/>
-    <mergeCell ref="S27:U30"/>
+    <mergeCell ref="S4:U6"/>
+    <mergeCell ref="V4:Y6"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I7:K10"/>
+    <mergeCell ref="L7:M10"/>
+    <mergeCell ref="N7:R10"/>
+    <mergeCell ref="S7:U10"/>
+    <mergeCell ref="V7:Y10"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="E4:H6"/>
+    <mergeCell ref="I4:K6"/>
+    <mergeCell ref="L4:M6"/>
+    <mergeCell ref="N4:R6"/>
+    <mergeCell ref="V11:Y14"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="E15:H18"/>
+    <mergeCell ref="I15:K18"/>
+    <mergeCell ref="L15:M18"/>
+    <mergeCell ref="N15:R18"/>
+    <mergeCell ref="S15:U18"/>
+    <mergeCell ref="V15:Y18"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:H14"/>
+    <mergeCell ref="I11:K14"/>
+    <mergeCell ref="L11:M14"/>
+    <mergeCell ref="N11:R14"/>
+    <mergeCell ref="S11:U14"/>
     <mergeCell ref="V19:Y22"/>
     <mergeCell ref="C23:D26"/>
     <mergeCell ref="E23:H26"/>
@@ -2051,34 +2219,31 @@
     <mergeCell ref="L19:M22"/>
     <mergeCell ref="N19:R22"/>
     <mergeCell ref="S19:U22"/>
-    <mergeCell ref="V11:Y14"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="E15:H18"/>
-    <mergeCell ref="I15:K18"/>
-    <mergeCell ref="L15:M18"/>
-    <mergeCell ref="N15:R18"/>
-    <mergeCell ref="S15:U18"/>
-    <mergeCell ref="V15:Y18"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:H14"/>
-    <mergeCell ref="I11:K14"/>
-    <mergeCell ref="L11:M14"/>
-    <mergeCell ref="N11:R14"/>
-    <mergeCell ref="S11:U14"/>
-    <mergeCell ref="S4:U6"/>
-    <mergeCell ref="V4:Y6"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I7:K10"/>
-    <mergeCell ref="L7:M10"/>
-    <mergeCell ref="N7:R10"/>
-    <mergeCell ref="S7:U10"/>
-    <mergeCell ref="V7:Y10"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="E4:H6"/>
-    <mergeCell ref="I4:K6"/>
-    <mergeCell ref="L4:M6"/>
-    <mergeCell ref="N4:R6"/>
+    <mergeCell ref="V27:Y30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="E27:H30"/>
+    <mergeCell ref="I27:K30"/>
+    <mergeCell ref="L27:M30"/>
+    <mergeCell ref="N27:R30"/>
+    <mergeCell ref="S27:U30"/>
+    <mergeCell ref="I49:K52"/>
+    <mergeCell ref="L49:N52"/>
+    <mergeCell ref="O49:Q52"/>
+    <mergeCell ref="R49:T52"/>
+    <mergeCell ref="L35:N38"/>
+    <mergeCell ref="O35:Q38"/>
+    <mergeCell ref="R35:T38"/>
+    <mergeCell ref="L39:N42"/>
+    <mergeCell ref="O39:Q42"/>
+    <mergeCell ref="R39:T42"/>
+    <mergeCell ref="I35:K38"/>
+    <mergeCell ref="I39:K42"/>
+    <mergeCell ref="I43:K46"/>
+    <mergeCell ref="I33:T34"/>
+    <mergeCell ref="I47:T48"/>
+    <mergeCell ref="L43:N46"/>
+    <mergeCell ref="O43:Q46"/>
+    <mergeCell ref="R43:T46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Sprint 2/Documentação/Planilha_de_riscos.xlsx
+++ b/Sprint 2/Documentação/Planilha_de_riscos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manocchio\Desktop\grupo04-1adsa-2021-1\Sprint 2\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abner Lucas\Desktop\Ferbgam\Sprint 2\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B51FFC-3B18-4C60-8653-73EEB5BB8BD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8B2CE0-9EDD-463B-9424-7360E99A84FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{725CB271-D415-4774-BA8E-1574EE13A346}"/>
   </bookViews>
@@ -502,31 +502,76 @@
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,51 +601,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -628,6 +628,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,6 +682,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,33 +736,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,33 +752,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,594 +1075,594 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079D4132-0B44-454B-9607-1AF69B3FC5DD}">
   <dimension ref="C3:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4:Y6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="76" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="76" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="76" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="76" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="76" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="76" t="s">
+      <c r="T4" s="2"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="78"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="81"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="3:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="84"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="19">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10">
         <v>2</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="19">
+      <c r="J7" s="16"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10">
         <v>3</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="31">
+      <c r="M7" s="19"/>
+      <c r="N7" s="22">
         <v>6</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="31" t="s">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="25"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="10" t="s">
+      <c r="T7" s="16"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="12"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="30"/>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="15"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="30"/>
     </row>
     <row r="10" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="33"/>
     </row>
     <row r="11" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="19">
+      <c r="C11" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="19">
+      <c r="J11" s="16"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10">
         <v>3</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="19">
+      <c r="M11" s="19"/>
+      <c r="N11" s="10">
         <f>I11*L11</f>
         <v>3</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="31" t="s">
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="10" t="s">
+      <c r="T11" s="16"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="12"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="15"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="30"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="30"/>
     </row>
     <row r="14" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="18"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="33"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="19">
+      <c r="C15" s="10">
         <v>3</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10">
         <v>2</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="19">
+      <c r="J15" s="16"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10">
         <v>3</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="19">
+      <c r="M15" s="19"/>
+      <c r="N15" s="10">
         <f>I15*L15</f>
         <v>6</v>
       </c>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="31" t="s">
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="25"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="10" t="s">
+      <c r="T15" s="16"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="12"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="27"/>
     </row>
     <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="15"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="30"/>
     </row>
     <row r="17" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="15"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="30"/>
     </row>
     <row r="18" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="18"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="33"/>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C19" s="19">
+      <c r="C19" s="10">
         <v>4</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10">
         <v>2</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="19">
+      <c r="J19" s="16"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10">
         <v>3</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="19">
+      <c r="M19" s="19"/>
+      <c r="N19" s="10">
         <f>I19*L19</f>
         <v>6</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="31" t="s">
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="T19" s="25"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="10" t="s">
+      <c r="T19" s="16"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="12"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="27"/>
     </row>
     <row r="20" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="15"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="30"/>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="30"/>
     </row>
     <row r="22" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="18"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="33"/>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C23" s="19">
+      <c r="C23" s="10">
         <v>5</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="19">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10">
         <v>2</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="19">
+      <c r="J23" s="16"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="10">
         <v>1</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="19">
+      <c r="M23" s="19"/>
+      <c r="N23" s="10">
         <f>I23*L23</f>
         <v>2</v>
       </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="31" t="s">
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="T23" s="25"/>
-      <c r="U23" s="26"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="34" t="s">
         <v>26</v>
       </c>
@@ -1671,237 +1671,237 @@
       <c r="Y23" s="36"/>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="28"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="20"/>
       <c r="V24" s="37"/>
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
       <c r="Y24" s="39"/>
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="28"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="20"/>
       <c r="V25" s="37"/>
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
       <c r="Y25" s="39"/>
     </row>
     <row r="26" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="30"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="21"/>
       <c r="V26" s="40"/>
       <c r="W26" s="41"/>
       <c r="X26" s="41"/>
       <c r="Y26" s="42"/>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>6</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="19">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="10">
         <v>3</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="31">
+      <c r="J27" s="16"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="22">
         <v>2</v>
       </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="19">
+      <c r="M27" s="19"/>
+      <c r="N27" s="10">
         <f>I27*L27</f>
         <v>6</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="31" t="s">
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="T27" s="25"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="10" t="s">
+      <c r="T27" s="16"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="12"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27"/>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="15"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="30"/>
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="15"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="30"/>
     </row>
     <row r="30" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="33"/>
     </row>
     <row r="32" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I33" s="70" t="s">
+      <c r="I33" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="72"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="81"/>
     </row>
     <row r="34" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="73"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="75"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="84"/>
     </row>
     <row r="35" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="43">
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="52">
         <v>3</v>
       </c>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="54"/>
       <c r="O35" s="61">
         <v>6</v>
       </c>
@@ -1914,12 +1914,12 @@
       <c r="T35" s="63"/>
     </row>
     <row r="36" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="48"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="64"/>
       <c r="P36" s="65"/>
       <c r="Q36" s="66"/>
@@ -1928,12 +1928,12 @@
       <c r="T36" s="66"/>
     </row>
     <row r="37" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="48"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
       <c r="O37" s="64"/>
       <c r="P37" s="65"/>
       <c r="Q37" s="66"/>
@@ -1942,12 +1942,12 @@
       <c r="T37" s="66"/>
     </row>
     <row r="38" spans="9:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="60"/>
       <c r="O38" s="67"/>
       <c r="P38" s="68"/>
       <c r="Q38" s="69"/>
@@ -1956,21 +1956,21 @@
       <c r="T38" s="69"/>
     </row>
     <row r="39" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="52">
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="70">
         <v>2</v>
       </c>
-      <c r="M39" s="53"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="43">
+      <c r="M39" s="71"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="52">
         <v>4</v>
       </c>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="45"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="54"/>
       <c r="R39" s="61">
         <v>6</v>
       </c>
@@ -1978,205 +1978,258 @@
       <c r="T39" s="63"/>
     </row>
     <row r="40" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I40" s="4"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="48"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="57"/>
       <c r="R40" s="64"/>
       <c r="S40" s="65"/>
       <c r="T40" s="66"/>
     </row>
     <row r="41" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="48"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="57"/>
       <c r="R41" s="64"/>
       <c r="S41" s="65"/>
       <c r="T41" s="66"/>
     </row>
     <row r="42" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="51"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="60"/>
       <c r="R42" s="67"/>
       <c r="S42" s="68"/>
       <c r="T42" s="69"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="52">
+      <c r="J43" s="44"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="70">
         <v>1</v>
       </c>
-      <c r="M43" s="53"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="52">
+      <c r="M43" s="71"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="70">
         <v>2</v>
       </c>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="43">
+      <c r="P43" s="71"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="52">
         <v>3</v>
       </c>
-      <c r="S43" s="44"/>
-      <c r="T43" s="45"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="54"/>
     </row>
     <row r="44" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I44" s="4"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="48"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="57"/>
     </row>
     <row r="45" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="48"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="57"/>
     </row>
     <row r="46" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="51"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="60"/>
     </row>
     <row r="47" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I47" s="70" t="s">
+      <c r="I47" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="72"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="81"/>
     </row>
     <row r="48" spans="9:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I48" s="73"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
-      <c r="T48" s="75"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="83"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="83"/>
+      <c r="T48" s="84"/>
     </row>
     <row r="49" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I49" s="1"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="1" t="s">
+      <c r="I49" s="43"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="1" t="s">
+      <c r="M49" s="44"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="1" t="s">
+      <c r="P49" s="44"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="3"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="45"/>
     </row>
     <row r="50" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I50" s="4"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="6"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="48"/>
     </row>
     <row r="51" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I51" s="4"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="6"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="48"/>
     </row>
     <row r="52" spans="9:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="9"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="I33:T34"/>
+    <mergeCell ref="I47:T48"/>
+    <mergeCell ref="L43:N46"/>
+    <mergeCell ref="O43:Q46"/>
+    <mergeCell ref="R43:T46"/>
+    <mergeCell ref="I49:K52"/>
+    <mergeCell ref="L49:N52"/>
+    <mergeCell ref="O49:Q52"/>
+    <mergeCell ref="R49:T52"/>
+    <mergeCell ref="L35:N38"/>
+    <mergeCell ref="O35:Q38"/>
+    <mergeCell ref="R35:T38"/>
+    <mergeCell ref="L39:N42"/>
+    <mergeCell ref="O39:Q42"/>
+    <mergeCell ref="R39:T42"/>
+    <mergeCell ref="I35:K38"/>
+    <mergeCell ref="I39:K42"/>
+    <mergeCell ref="I43:K46"/>
+    <mergeCell ref="V27:Y30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="E27:H30"/>
+    <mergeCell ref="I27:K30"/>
+    <mergeCell ref="L27:M30"/>
+    <mergeCell ref="N27:R30"/>
+    <mergeCell ref="S27:U30"/>
+    <mergeCell ref="V19:Y22"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="E23:H26"/>
+    <mergeCell ref="I23:K26"/>
+    <mergeCell ref="L23:M26"/>
+    <mergeCell ref="N23:R26"/>
+    <mergeCell ref="S23:U26"/>
+    <mergeCell ref="V23:Y26"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="E19:H22"/>
+    <mergeCell ref="I19:K22"/>
+    <mergeCell ref="L19:M22"/>
+    <mergeCell ref="N19:R22"/>
+    <mergeCell ref="S19:U22"/>
+    <mergeCell ref="V11:Y14"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="E15:H18"/>
+    <mergeCell ref="I15:K18"/>
+    <mergeCell ref="L15:M18"/>
+    <mergeCell ref="N15:R18"/>
+    <mergeCell ref="S15:U18"/>
+    <mergeCell ref="V15:Y18"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="E11:H14"/>
+    <mergeCell ref="I11:K14"/>
+    <mergeCell ref="L11:M14"/>
+    <mergeCell ref="N11:R14"/>
+    <mergeCell ref="S11:U14"/>
     <mergeCell ref="S4:U6"/>
     <mergeCell ref="V4:Y6"/>
     <mergeCell ref="C7:D10"/>
@@ -2191,59 +2244,6 @@
     <mergeCell ref="I4:K6"/>
     <mergeCell ref="L4:M6"/>
     <mergeCell ref="N4:R6"/>
-    <mergeCell ref="V11:Y14"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="E15:H18"/>
-    <mergeCell ref="I15:K18"/>
-    <mergeCell ref="L15:M18"/>
-    <mergeCell ref="N15:R18"/>
-    <mergeCell ref="S15:U18"/>
-    <mergeCell ref="V15:Y18"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="E11:H14"/>
-    <mergeCell ref="I11:K14"/>
-    <mergeCell ref="L11:M14"/>
-    <mergeCell ref="N11:R14"/>
-    <mergeCell ref="S11:U14"/>
-    <mergeCell ref="V19:Y22"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="E23:H26"/>
-    <mergeCell ref="I23:K26"/>
-    <mergeCell ref="L23:M26"/>
-    <mergeCell ref="N23:R26"/>
-    <mergeCell ref="S23:U26"/>
-    <mergeCell ref="V23:Y26"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="E19:H22"/>
-    <mergeCell ref="I19:K22"/>
-    <mergeCell ref="L19:M22"/>
-    <mergeCell ref="N19:R22"/>
-    <mergeCell ref="S19:U22"/>
-    <mergeCell ref="V27:Y30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="E27:H30"/>
-    <mergeCell ref="I27:K30"/>
-    <mergeCell ref="L27:M30"/>
-    <mergeCell ref="N27:R30"/>
-    <mergeCell ref="S27:U30"/>
-    <mergeCell ref="I49:K52"/>
-    <mergeCell ref="L49:N52"/>
-    <mergeCell ref="O49:Q52"/>
-    <mergeCell ref="R49:T52"/>
-    <mergeCell ref="L35:N38"/>
-    <mergeCell ref="O35:Q38"/>
-    <mergeCell ref="R35:T38"/>
-    <mergeCell ref="L39:N42"/>
-    <mergeCell ref="O39:Q42"/>
-    <mergeCell ref="R39:T42"/>
-    <mergeCell ref="I35:K38"/>
-    <mergeCell ref="I39:K42"/>
-    <mergeCell ref="I43:K46"/>
-    <mergeCell ref="I33:T34"/>
-    <mergeCell ref="I47:T48"/>
-    <mergeCell ref="L43:N46"/>
-    <mergeCell ref="O43:Q46"/>
-    <mergeCell ref="R43:T46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
